--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_16_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2977937.456503772</v>
+        <v>2975393.646996689</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228319</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>259.632696771575</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>212.5689651179051</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,22 +735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>10.18456372565624</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.1525249552777</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>203.8804318482955</v>
       </c>
     </row>
     <row r="4">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888211</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>82.50423287391843</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>260.2363572824535</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>212.5689651179051</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015061</v>
+        <v>259.632696771575</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
     </row>
     <row r="6">
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>77.09393081742186</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1038,10 +1038,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>28.33708868093411</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>65.77030295285029</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V7" t="n">
-        <v>218.1349960024614</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>191.2466378561178</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>11.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203005</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465034</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>219.1455308645077</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1221,16 +1221,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>143.2927632288461</v>
       </c>
       <c r="G9" t="n">
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614507</v>
+        <v>92.8390969161451</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115237</v>
+        <v>20.2497997611525</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>132.6026661256438</v>
+        <v>134.3791152901739</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,19 +1297,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>15.71877539336632</v>
+        <v>104.8162497430996</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640953</v>
+        <v>101.5869591640955</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>107.4985065573551</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881274</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856555</v>
@@ -1585,13 +1585,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>44.30292280757614</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784668</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>26.05480806223588</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2084,10 +2084,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>42.71572132711243</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>9.146142788179368</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>73.93222849083733</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>123.9815576456779</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>90.85912858529821</v>
       </c>
     </row>
     <row r="41">
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3949,13 +3949,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>6.434538210426389</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.00642392276842</v>
+        <v>419.7330060626392</v>
       </c>
       <c r="C2" t="n">
-        <v>41.00642392276842</v>
+        <v>419.7330060626392</v>
       </c>
       <c r="D2" t="n">
-        <v>41.00642392276842</v>
+        <v>419.7330060626392</v>
       </c>
       <c r="E2" t="n">
-        <v>41.00642392276842</v>
+        <v>419.7330060626392</v>
       </c>
       <c r="F2" t="n">
-        <v>34.06092317356495</v>
+        <v>412.7875053134357</v>
       </c>
       <c r="G2" t="n">
-        <v>21.09711040012049</v>
+        <v>399.8236925399913</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917624</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052547</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515912</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030611</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991323</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358418</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="V2" t="n">
-        <v>840.1393936243022</v>
+        <v>419.7330060626392</v>
       </c>
       <c r="W2" t="n">
-        <v>840.1393936243022</v>
+        <v>419.7330060626392</v>
       </c>
       <c r="X2" t="n">
-        <v>573.7617370571243</v>
+        <v>419.7330060626392</v>
       </c>
       <c r="Y2" t="n">
-        <v>307.3840804899464</v>
+        <v>419.7330060626392</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>660.5440004277928</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C3" t="n">
-        <v>486.0909711466658</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>337.1565614854145</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>177.919106479959</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>31.38454850684397</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957459</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298712</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>433.126243926395</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>694.202985127886</v>
+        <v>648.3904695545987</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560897</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4431,28 +4431,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>906.2192216098645</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>481.2742972781156</v>
       </c>
       <c r="V3" t="n">
-        <v>1036.519636212815</v>
+        <v>481.2742972781156</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.519636212815</v>
+        <v>227.0369405499139</v>
       </c>
       <c r="X3" t="n">
-        <v>1036.519636212815</v>
+        <v>227.0369405499139</v>
       </c>
       <c r="Y3" t="n">
-        <v>828.7593374478608</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.32155393434485</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="C4" t="n">
-        <v>36.32155393434485</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D4" t="n">
-        <v>36.32155393434485</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E4" t="n">
-        <v>36.32155393434485</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434485</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434485</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434485</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434485</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
@@ -4498,10 +4498,10 @@
         <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227045</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>971.5179110424706</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>971.5179110424706</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="T4" t="n">
-        <v>971.5179110424706</v>
+        <v>719.2759572512191</v>
       </c>
       <c r="U4" t="n">
-        <v>705.1402544752926</v>
+        <v>452.8983006840411</v>
       </c>
       <c r="V4" t="n">
-        <v>705.1402544752926</v>
+        <v>452.8983006840411</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7625979081147</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7625979081147</v>
+        <v>190.0332933280274</v>
       </c>
       <c r="Y4" t="n">
-        <v>217.9700187645846</v>
+        <v>190.0332933280274</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>840.1393936243022</v>
+        <v>419.7330060626392</v>
       </c>
       <c r="C5" t="n">
-        <v>573.7617370571243</v>
+        <v>157.477756798422</v>
       </c>
       <c r="D5" t="n">
-        <v>307.3840804899464</v>
+        <v>157.477756798422</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>157.477756798422</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
         <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030601</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006025</v>
+        <v>419.7330060626392</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>650.2565623210693</v>
+        <v>195.5501396812475</v>
       </c>
       <c r="C6" t="n">
-        <v>475.8035330399423</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D6" t="n">
-        <v>326.869123378691</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E6" t="n">
-        <v>167.6316683732355</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957468</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
         <v>242.5255548298714</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>503.6022960313625</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>713.6562631339676</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4671,25 +4671,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>906.2192216098645</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>709.4101432413021</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>481.2742972781156</v>
       </c>
       <c r="V6" t="n">
-        <v>1054.855520006025</v>
+        <v>481.2742972781156</v>
       </c>
       <c r="W6" t="n">
-        <v>1054.855520006025</v>
+        <v>481.2742972781156</v>
       </c>
       <c r="X6" t="n">
-        <v>1026.232198106091</v>
+        <v>273.4227970725827</v>
       </c>
       <c r="Y6" t="n">
-        <v>818.4718993411373</v>
+        <v>273.4227970725827</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>340.1499327403632</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C7" t="n">
-        <v>171.2137498124562</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L7" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075542</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1054.855520006025</v>
+        <v>988.4208705587013</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.855520006025</v>
+        <v>988.4208705587013</v>
       </c>
       <c r="T7" t="n">
-        <v>1054.855520006025</v>
+        <v>762.9518343167156</v>
       </c>
       <c r="U7" t="n">
-        <v>1054.855520006025</v>
+        <v>496.5741777495375</v>
       </c>
       <c r="V7" t="n">
-        <v>834.5171402055585</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="W7" t="n">
-        <v>568.1394836383805</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="X7" t="n">
-        <v>340.1499327403632</v>
+        <v>241.8896895436506</v>
       </c>
       <c r="Y7" t="n">
-        <v>340.1499327403632</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>726.5262874280857</v>
+        <v>373.8967903081297</v>
       </c>
       <c r="C8" t="n">
-        <v>726.5262874280857</v>
+        <v>373.8967903081297</v>
       </c>
       <c r="D8" t="n">
-        <v>726.5262874280857</v>
+        <v>373.8967903081297</v>
       </c>
       <c r="E8" t="n">
-        <v>726.5262874280857</v>
+        <v>373.8967903081297</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3478653511989</v>
+        <v>366.9512895589262</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6416433428661</v>
+        <v>355.2854715909975</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428661</v>
+        <v>51.21125520685551</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685568</v>
+        <v>51.21125520685551</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467168</v>
+        <v>187.3702251467162</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607419</v>
+        <v>442.17574376074</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045926</v>
+        <v>795.1862829045895</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995227</v>
+        <v>1219.647962995222</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209585</v>
+        <v>1655.591685209579</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940597</v>
+        <v>2053.905718940589</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550199</v>
+        <v>2359.356530550191</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661164</v>
+        <v>2540.564622661157</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342784</v>
+        <v>2560.562760342776</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342784</v>
+        <v>2560.562760342776</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342784</v>
+        <v>2351.810676439049</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342784</v>
+        <v>2098.229497964619</v>
       </c>
       <c r="V8" t="n">
-        <v>2229.499872999213</v>
+        <v>1876.870375879257</v>
       </c>
       <c r="W8" t="n">
-        <v>1876.731217729099</v>
+        <v>1524.101720609143</v>
       </c>
       <c r="X8" t="n">
-        <v>1503.265459468019</v>
+        <v>1150.635962348063</v>
       </c>
       <c r="Y8" t="n">
-        <v>1113.126127492207</v>
+        <v>760.4966303722515</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965633</v>
+        <v>929.5097208010704</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154363</v>
+        <v>755.0566915199435</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541851</v>
+        <v>606.1222818586922</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487295</v>
+        <v>446.8848268532367</v>
       </c>
       <c r="F9" t="n">
         <v>302.1446619756144</v>
@@ -4875,58 +4875,58 @@
         <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993889</v>
+        <v>71.66559839993884</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685568</v>
+        <v>51.21125520685551</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637188</v>
+        <v>238.318882950723</v>
       </c>
       <c r="K9" t="n">
-        <v>298.085754314818</v>
+        <v>422.9158793018217</v>
       </c>
       <c r="L9" t="n">
-        <v>592.6217377482993</v>
+        <v>1056.655162486659</v>
       </c>
       <c r="M9" t="n">
-        <v>955.6882062226007</v>
+        <v>1419.721630960959</v>
       </c>
       <c r="N9" t="n">
-        <v>1342.77260869517</v>
+        <v>1806.806033433527</v>
       </c>
       <c r="O9" t="n">
-        <v>1675.055347547386</v>
+        <v>2138.692843420916</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.368846930548</v>
+        <v>2421.055229888874</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342784</v>
+        <v>2536.272628442618</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342784</v>
+        <v>2560.562760342776</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.620673347184</v>
+        <v>2424.826280251691</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610870780833</v>
+        <v>2230.81647768534</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2002.726321751569</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.36860661532</v>
+        <v>1767.574213519827</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1513.336856791625</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1305.485356586092</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1097.725057821139</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>829.6894371651855</v>
+        <v>476.1390772876027</v>
       </c>
       <c r="C10" t="n">
-        <v>660.7532542372786</v>
+        <v>307.2028943596958</v>
       </c>
       <c r="D10" t="n">
-        <v>510.6366148249429</v>
+        <v>157.0862549473601</v>
       </c>
       <c r="E10" t="n">
-        <v>362.7235212425497</v>
+        <v>157.0862549473601</v>
       </c>
       <c r="F10" t="n">
-        <v>215.8335737446394</v>
+        <v>157.0862549473601</v>
       </c>
       <c r="G10" t="n">
-        <v>215.8335737446394</v>
+        <v>157.0862549473601</v>
       </c>
       <c r="H10" t="n">
-        <v>67.08880610924589</v>
+        <v>157.0862549473601</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685568</v>
+        <v>51.21125520685551</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380149</v>
+        <v>76.63468308380111</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676568</v>
+        <v>248.2500215676561</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368921</v>
+        <v>523.3850043368908</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904036</v>
+        <v>823.8653899904018</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101613</v>
+        <v>1122.63564010161</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931091</v>
+        <v>1382.582027931088</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.4903876165</v>
+        <v>1581.490387616497</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477363</v>
+        <v>1635.769145477359</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.15605541262</v>
+        <v>1533.156055412617</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.15605541262</v>
+        <v>1533.156055412617</v>
       </c>
       <c r="T10" t="n">
-        <v>1533.15605541262</v>
+        <v>1310.174753887022</v>
       </c>
       <c r="U10" t="n">
-        <v>1533.15605541262</v>
+        <v>1021.056380381664</v>
       </c>
       <c r="V10" t="n">
-        <v>1278.471567206733</v>
+        <v>766.3718921757769</v>
       </c>
       <c r="W10" t="n">
-        <v>1278.471567206733</v>
+        <v>657.7875421178425</v>
       </c>
       <c r="X10" t="n">
-        <v>1050.482016308716</v>
+        <v>657.7875421178425</v>
       </c>
       <c r="Y10" t="n">
-        <v>829.6894371651855</v>
+        <v>657.7875421178425</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5030,61 +5030,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797183</v>
+        <v>427.7414352191924</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637304</v>
+        <v>923.067041434951</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>923.067041434951</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444888</v>
+        <v>1550.665004989557</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684175</v>
+        <v>2102.574735228844</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>782.841029837709</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5233,16 +5233,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1643.635426776346</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1354.218256739386</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5267,19 +5267,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
@@ -5294,34 +5294,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797183</v>
+        <v>139.2347658407948</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797183</v>
+        <v>139.2347658407948</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703794</v>
+        <v>634.5603720565533</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969311</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5510,16 +5510,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694706</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>417.9651836029417</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703794</v>
+        <v>913.2907898187003</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969311</v>
+        <v>913.2907898187003</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5650,22 +5650,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797186</v>
@@ -5732,7 +5732,7 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5750,19 +5750,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5792,7 +5792,7 @@
         <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615996</v>
@@ -5829,19 +5829,19 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>139.2347658407948</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>139.2347658407948</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797186</v>
+        <v>634.5603720565533</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438179</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5887,22 +5887,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797186</v>
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5984,31 +5984,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797186</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6124,22 +6124,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797186</v>
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>397.4723325755821</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>250.5823850776717</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,22 +6452,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6476,13 +6476,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,16 +6537,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
         <v>680.0291294438176</v>
@@ -6598,16 +6598,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6841,16 +6841,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6917,16 +6917,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6938,16 +6938,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,19 +7014,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7072,19 +7072,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7166,58 +7166,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>642.8692823226941</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7375,7 +7375,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>824.5177471529338</v>
       </c>
     </row>
     <row r="41">
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7494,22 +7494,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7628,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7688,7 +7688,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7783,22 +7783,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761156</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418294</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8067,10 +8067,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>51.53815565544053</v>
+        <v>5.262887399594348</v>
       </c>
       <c r="O3" t="n">
-        <v>45.78351343583228</v>
+        <v>92.05878169167806</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8137,7 +8137,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446526</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8301,16 +8301,16 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>71.18793141915887</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>26.13373767211345</v>
       </c>
       <c r="P6" t="n">
-        <v>97.32166909127221</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.6295957084408</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3999281462893691</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>35.6838667053882</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348508</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>207.8347205162519</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>119.3662399606954</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194223</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>124.9899273367997</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>124.5310997715154</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>66.36248435538656</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,19 +24838,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.63391537253442</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -25081,19 +25081,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
     </row>
     <row r="41">
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25837,13 +25837,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>210.9709121168619</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>736191.0431612027</v>
+        <v>736191.0431612026</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>736191.0431612026</v>
+        <v>736191.0431612027</v>
       </c>
     </row>
     <row r="9">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846404</v>
+        <v>697885.5043846405</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="G2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="I2" t="n">
         <v>686074.6097365058</v>
@@ -26338,19 +26338,19 @@
         <v>686074.6097365058</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="L2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="N2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="O2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="P2" t="n">
         <v>686074.6097365057</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911928</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.007658079</v>
+        <v>390680.0076580769</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606929</v>
+        <v>507909.2320606949</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.654869427746674e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911413</v>
+        <v>68999.15441911409</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101769</v>
+        <v>95270.23779101716</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954689</v>
+        <v>132717.9756954694</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>250332.6659748621</v>
       </c>
       <c r="D4" t="n">
-        <v>139261.6527555024</v>
+        <v>139261.652755503</v>
       </c>
       <c r="E4" t="n">
+        <v>10557.08828678121</v>
+      </c>
+      <c r="F4" t="n">
         <v>10557.08828678125</v>
-      </c>
-      <c r="F4" t="n">
-        <v>10557.08828678131</v>
       </c>
       <c r="G4" t="n">
         <v>10557.08828678127</v>
       </c>
       <c r="H4" t="n">
+        <v>10557.08828678127</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10557.08828678126</v>
+      </c>
+      <c r="J4" t="n">
         <v>10557.08828678125</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10557.08828678124</v>
-      </c>
-      <c r="J4" t="n">
-        <v>10557.08828678122</v>
       </c>
       <c r="K4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
+        <v>10557.08828678123</v>
+      </c>
+      <c r="M4" t="n">
         <v>10557.08828678122</v>
       </c>
-      <c r="M4" t="n">
-        <v>10557.08828678123</v>
-      </c>
       <c r="N4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="P4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678121</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567897</v>
+        <v>92902.86757567881</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-295582.9453856802</v>
+        <v>-295582.9453856804</v>
       </c>
       <c r="C6" t="n">
-        <v>384505.0352055124</v>
+        <v>384505.0352055125</v>
       </c>
       <c r="D6" t="n">
-        <v>75040.97639538004</v>
+        <v>75040.97639538183</v>
       </c>
       <c r="E6" t="n">
-        <v>66485.75956512424</v>
+        <v>66451.02163968665</v>
       </c>
       <c r="F6" t="n">
-        <v>574394.991625817</v>
+        <v>574360.2537003818</v>
       </c>
       <c r="G6" t="n">
-        <v>574394.9916258174</v>
+        <v>574360.2537003817</v>
       </c>
       <c r="H6" t="n">
-        <v>574394.9916258174</v>
+        <v>574360.2537003818</v>
       </c>
       <c r="I6" t="n">
-        <v>574394.9916258174</v>
+        <v>574360.2537003817</v>
       </c>
       <c r="J6" t="n">
-        <v>505395.8372067033</v>
+        <v>505361.0992812677</v>
       </c>
       <c r="K6" t="n">
-        <v>574394.9916258175</v>
+        <v>574360.2537003817</v>
       </c>
       <c r="L6" t="n">
-        <v>479124.7538347995</v>
+        <v>479090.0159093643</v>
       </c>
       <c r="M6" t="n">
-        <v>441677.0159303486</v>
+        <v>441642.2780049121</v>
       </c>
       <c r="N6" t="n">
-        <v>574394.9916258174</v>
+        <v>574360.2537003817</v>
       </c>
       <c r="O6" t="n">
-        <v>574394.9916258171</v>
+        <v>574360.2537003818</v>
       </c>
       <c r="P6" t="n">
-        <v>574394.9916258174</v>
+        <v>574360.2537003817</v>
       </c>
     </row>
   </sheetData>
@@ -26692,22 +26692,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26719,7 +26719,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627829</v>
+        <v>933.7024595627812</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.140690085696</v>
+        <v>640.1406900856939</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694781</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933045</v>
+        <v>319.6474457933028</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788906</v>
+        <v>434.2730407788923</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841898</v>
+        <v>376.4268100841878</v>
       </c>
       <c r="E4" t="n">
-        <v>532.567598013952</v>
+        <v>532.5675980139542</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015064</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841898</v>
+        <v>376.4268100841878</v>
       </c>
       <c r="M4" t="n">
-        <v>532.567598013952</v>
+        <v>532.5675980139542</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.36886840263309e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.318586784683342e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841898</v>
+        <v>376.4268100841878</v>
       </c>
       <c r="M4" t="n">
-        <v>532.567598013952</v>
+        <v>532.5675980139542</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>119.0199616619744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>54.56093585769304</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>115.1832933522298</v>
+        <v>64.03837846862871</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>122.5240586545474</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>125.8381558607672</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150561</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1.802263929008859</v>
       </c>
     </row>
     <row r="4">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27555,10 +27555,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248086</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>45.00037000974552</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117135</v>
+        <v>22.54475050117128</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>26.28664105413748</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>170.1648765455755</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>105.6401949994326</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.1481678782825</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27692,19 +27692,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>89.43925283244548</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
@@ -27743,13 +27743,13 @@
         <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27758,10 +27758,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>177.4358965225434</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>61.73429993081363</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>22.5447505011713</v>
       </c>
       <c r="V7" t="n">
-        <v>34.00264732136657</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>215.6294078855936</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203004</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465062</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348406</v>
+        <v>123.4854171348408</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>108.6067276056272</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27941,7 +27941,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1.776449164537809</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27980,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.776449164530078</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,19 +28017,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590396</v>
       </c>
       <c r="I10" t="n">
-        <v>89.09747434973318</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,22 +28062,22 @@
         <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103387</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>179.0244917792359</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.186383405309181e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>9.28537247091299e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28804,10 +28804,10 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>8.415399411803563e-13</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>9.28537247091299e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30043,7 +30043,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425036</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350879</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388633</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016252</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167917</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459292</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986831</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>415.9250721658378</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269072</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.577018565623</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702306</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.320797576787179</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990947</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472484</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919894</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458304</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043655</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>343.5174364293989</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542725</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480711</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736543</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163904</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944813</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0868945774202092</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,22 +31197,22 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912173</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.845013171582787</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244974</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779067</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225234</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440335</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
         <v>173.576239384051</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.513563181768</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555595</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.7223070791912</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350554</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337851</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.73124354871565</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339136</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885557</v>
+        <v>3.75357772688555</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546671</v>
+        <v>38.44132789546664</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157556</v>
+        <v>144.7098053157553</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972533</v>
+        <v>318.5802175972527</v>
       </c>
       <c r="K8" t="n">
-        <v>477.469162776319</v>
+        <v>477.4691627763181</v>
       </c>
       <c r="L8" t="n">
-        <v>592.342717135493</v>
+        <v>592.3427171354919</v>
       </c>
       <c r="M8" t="n">
-        <v>659.095405035994</v>
+        <v>659.0954050359927</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525076</v>
+        <v>669.7602577525064</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307894</v>
+        <v>632.4356192307881</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983021</v>
+        <v>539.7691690983011</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542129</v>
+        <v>405.3441667542122</v>
       </c>
       <c r="R8" t="n">
-        <v>235.785676886475</v>
+        <v>235.7856768864746</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140471</v>
+        <v>85.53465245140455</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944153</v>
+        <v>16.4312864994415</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508444</v>
+        <v>0.3002862181508439</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436929</v>
+        <v>2.008341139436926</v>
       </c>
       <c r="H9" t="n">
-        <v>19.3963473203514</v>
+        <v>19.39634732035136</v>
       </c>
       <c r="I9" t="n">
-        <v>69.1468330902627</v>
+        <v>69.14683309026258</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079425</v>
+        <v>189.7441951079422</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502168</v>
+        <v>324.3030514502162</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571281</v>
+        <v>436.0654741571273</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617166</v>
+        <v>508.8678404617157</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152214</v>
+        <v>522.3360580152205</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519084</v>
+        <v>477.8354464519074</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947589</v>
+        <v>383.5050724947582</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463702</v>
+        <v>256.3629847463697</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204789</v>
+        <v>124.6933209204786</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366399</v>
+        <v>37.30405581366392</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133936</v>
+        <v>8.09502415413392</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419033</v>
+        <v>0.1321277065419031</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752559</v>
+        <v>1.683725746752556</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840004</v>
+        <v>14.96985254840001</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415879</v>
+        <v>50.6342251841587</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954059</v>
+        <v>119.0394102954057</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772518</v>
+        <v>195.6183185772515</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490123</v>
+        <v>250.3240987490119</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023125</v>
+        <v>263.931664102312</v>
       </c>
       <c r="N10" t="n">
-        <v>257.655959046235</v>
+        <v>257.6559590462345</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046254</v>
+        <v>237.986981004625</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708731</v>
+        <v>203.6389757708727</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939802</v>
+        <v>140.98907139398</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307414</v>
+        <v>75.70643221307401</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658777</v>
+        <v>29.34274778658772</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942751</v>
+        <v>7.194100917942738</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650333</v>
+        <v>0.09183958618650316</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,13 +31841,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071783</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704916</v>
+        <v>552.0015769888932</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742437</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>170.9292585737937</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338212</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862119</v>
@@ -32090,7 +32090,7 @@
         <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214697</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742437</v>
@@ -32309,19 +32309,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>312.3207226334985</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338212</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071783</v>
@@ -32333,10 +32333,10 @@
         <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742437</v>
@@ -32549,22 +32549,22 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>172.7144981745686</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>734.267838362267</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214697</v>
@@ -32786,19 +32786,19 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>746.4857620875799</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,19 +33257,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,22 +33734,22 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33974,13 +33974,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34214,7 +34214,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>624.2063432190395</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217703</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664461</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468045</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186564</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020922</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441511</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716377</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117352</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.43840481763041</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659562</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823472</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>263.7138800015061</v>
+        <v>217.4386117456601</v>
       </c>
       <c r="O3" t="n">
-        <v>217.4386117456603</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="P3" t="n">
-        <v>118.2400000337409</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649636</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34872,10 +34872,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.202951120453</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496811</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35021,16 +35021,16 @@
         <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="N6" t="n">
         <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>197.7888359819416</v>
       </c>
       <c r="P6" t="n">
-        <v>215.5616691250132</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
         <v>28.61687799649641</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.534313070567</v>
+        <v>137.5343130705664</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313385</v>
+        <v>257.3793117313376</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655058</v>
+        <v>356.5763021655046</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087213</v>
+        <v>428.74917180872</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559167</v>
+        <v>440.3471941559155</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091026</v>
+        <v>402.3374078091014</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430325</v>
+        <v>308.5361733430315</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797635</v>
+        <v>183.0384768797627</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234292</v>
+        <v>20.20013907234249</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127585</v>
+        <v>188.9976037816843</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758578</v>
+        <v>186.4616124758572</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772539</v>
+        <v>640.1406900856939</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396983</v>
+        <v>366.7338065396974</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318881</v>
+        <v>390.9943459318872</v>
       </c>
       <c r="O9" t="n">
-        <v>335.6391301537533</v>
+        <v>335.239202007463</v>
       </c>
       <c r="P9" t="n">
-        <v>567.9934337203658</v>
+        <v>285.2145317858162</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961977</v>
+        <v>116.3812106603482</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.53548676783551</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873315</v>
+        <v>25.68023017873293</v>
       </c>
       <c r="K10" t="n">
-        <v>173.348826751369</v>
+        <v>173.3488267513686</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093285</v>
+        <v>277.914124009328</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641531</v>
+        <v>303.5155410641526</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254636</v>
+        <v>301.7881314254631</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186651</v>
+        <v>262.5721089186647</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357665</v>
+        <v>200.9175350357662</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228584</v>
+        <v>54.82702814228558</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35431,7 +35431,7 @@
         <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.937336923845</v>
@@ -35504,13 +35504,13 @@
         <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561613</v>
+        <v>418.027169574563</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>44.09163190712702</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394707</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641936</v>
@@ -35738,7 +35738,7 @@
         <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071394</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,19 +35957,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>174.4792836591395</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394704</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.937336923845</v>
@@ -35981,10 +35981,10 @@
         <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>45.87687150790191</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402486</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
         <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071394</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>615.1440500042467</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36850,7 +36850,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37637,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>485.6519634391653</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
